--- a/workingTables/SoloPB.xlsx
+++ b/workingTables/SoloPB.xlsx
@@ -12,8 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9645" windowHeight="12960"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet name="SoloPB" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SoloPB!$A$1:$G$162</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="41">
   <si>
     <t>Year</t>
   </si>
@@ -144,6 +147,9 @@
   </si>
   <si>
     <t>Golden Guardians</t>
+  </si>
+  <si>
+    <t>EffectivePick</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F162"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +482,7 @@
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +501,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -514,8 +524,12 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>IF(C2="Blue", IF(OR(D2=2,D2=3), "B2-3",IF(OR(D2=4,D2=5),"B4-5","B1")),IF(D2=3,"R3",IF(D2=4,"R4",IF(D2=5,"R5","R1-2"))))</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -534,8 +548,12 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G66" si="0">IF(C3="Blue", IF(OR(D3=2,D3=3), "B2-3",IF(OR(D3=4,D3=5),"B4-5","B1")),IF(D3=3,"R3",IF(D3=4,"R4",IF(D3=5,"R5","R1-2"))))</f>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
@@ -554,8 +572,12 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -574,8 +596,12 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -594,8 +620,12 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -614,8 +644,12 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -634,8 +668,12 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
@@ -654,8 +692,12 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -674,8 +716,12 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
@@ -694,8 +740,12 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -714,8 +764,12 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -734,8 +788,12 @@
       <c r="F13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -754,8 +812,12 @@
       <c r="F14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -774,8 +836,12 @@
       <c r="F15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -794,8 +860,12 @@
       <c r="F16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -814,8 +884,12 @@
       <c r="F17" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -834,8 +908,12 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -854,8 +932,12 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -874,8 +956,12 @@
       <c r="F20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -894,8 +980,12 @@
       <c r="F21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -914,8 +1004,12 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -934,8 +1028,12 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2018</v>
       </c>
@@ -954,8 +1052,12 @@
       <c r="F24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2018</v>
       </c>
@@ -974,8 +1076,12 @@
       <c r="F25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2018</v>
       </c>
@@ -994,8 +1100,12 @@
       <c r="F26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2018</v>
       </c>
@@ -1014,8 +1124,12 @@
       <c r="F27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2018</v>
       </c>
@@ -1034,8 +1148,12 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2018</v>
       </c>
@@ -1054,8 +1172,12 @@
       <c r="F29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -1074,8 +1196,12 @@
       <c r="F30" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2018</v>
       </c>
@@ -1094,8 +1220,12 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2018</v>
       </c>
@@ -1114,8 +1244,12 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2018</v>
       </c>
@@ -1134,8 +1268,12 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2018</v>
       </c>
@@ -1154,8 +1292,12 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2018</v>
       </c>
@@ -1174,8 +1316,12 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2018</v>
       </c>
@@ -1194,8 +1340,12 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2018</v>
       </c>
@@ -1214,8 +1364,12 @@
       <c r="F37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2018</v>
       </c>
@@ -1234,8 +1388,12 @@
       <c r="F38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2018</v>
       </c>
@@ -1254,8 +1412,12 @@
       <c r="F39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -1274,8 +1436,12 @@
       <c r="F40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -1294,8 +1460,12 @@
       <c r="F41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2018</v>
       </c>
@@ -1314,8 +1484,12 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2018</v>
       </c>
@@ -1334,8 +1508,12 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2018</v>
       </c>
@@ -1354,8 +1532,12 @@
       <c r="F44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2018</v>
       </c>
@@ -1374,8 +1556,12 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -1394,8 +1580,12 @@
       <c r="F46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2018</v>
       </c>
@@ -1414,8 +1604,12 @@
       <c r="F47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2018</v>
       </c>
@@ -1434,8 +1628,12 @@
       <c r="F48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2018</v>
       </c>
@@ -1454,8 +1652,12 @@
       <c r="F49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -1474,8 +1676,12 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2018</v>
       </c>
@@ -1494,8 +1700,12 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -1514,8 +1724,12 @@
       <c r="F52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2018</v>
       </c>
@@ -1534,8 +1748,12 @@
       <c r="F53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2018</v>
       </c>
@@ -1554,8 +1772,12 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -1574,8 +1796,12 @@
       <c r="F55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -1594,8 +1820,12 @@
       <c r="F56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -1614,8 +1844,12 @@
       <c r="F57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -1634,8 +1868,12 @@
       <c r="F58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -1654,8 +1892,12 @@
       <c r="F59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -1674,8 +1916,12 @@
       <c r="F60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -1694,8 +1940,12 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -1714,8 +1964,12 @@
       <c r="F62" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -1734,8 +1988,12 @@
       <c r="F63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2019</v>
       </c>
@@ -1754,8 +2012,12 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2019</v>
       </c>
@@ -1774,8 +2036,12 @@
       <c r="F65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2019</v>
       </c>
@@ -1794,8 +2060,12 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2019</v>
       </c>
@@ -1814,8 +2084,12 @@
       <c r="F67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G130" si="1">IF(C67="Blue", IF(OR(D67=2,D67=3), "B2-3",IF(OR(D67=4,D67=5),"B4-5","B1")),IF(D67=3,"R3",IF(D67=4,"R4",IF(D67=5,"R5","R1-2"))))</f>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2019</v>
       </c>
@@ -1834,8 +2108,12 @@
       <c r="F68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2019</v>
       </c>
@@ -1854,8 +2132,12 @@
       <c r="F69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2019</v>
       </c>
@@ -1874,8 +2156,12 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2019</v>
       </c>
@@ -1894,8 +2180,12 @@
       <c r="F71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -1914,8 +2204,12 @@
       <c r="F72" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2019</v>
       </c>
@@ -1934,8 +2228,12 @@
       <c r="F73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2019</v>
       </c>
@@ -1954,8 +2252,12 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2019</v>
       </c>
@@ -1974,8 +2276,12 @@
       <c r="F75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2019</v>
       </c>
@@ -1994,8 +2300,12 @@
       <c r="F76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -2014,8 +2324,12 @@
       <c r="F77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -2034,8 +2348,12 @@
       <c r="F78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -2054,8 +2372,12 @@
       <c r="F79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -2074,8 +2396,12 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -2094,8 +2420,12 @@
       <c r="F81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -2114,8 +2444,12 @@
       <c r="F82" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -2134,8 +2468,12 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -2154,8 +2492,12 @@
       <c r="F84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -2174,8 +2516,12 @@
       <c r="F85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -2194,8 +2540,12 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -2214,8 +2564,12 @@
       <c r="F87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -2234,8 +2588,12 @@
       <c r="F88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -2254,8 +2612,12 @@
       <c r="F89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -2274,8 +2636,12 @@
       <c r="F90" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -2294,8 +2660,12 @@
       <c r="F91" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -2314,8 +2684,12 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -2334,8 +2708,12 @@
       <c r="F93" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -2354,8 +2732,12 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -2374,8 +2756,12 @@
       <c r="F95" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -2394,8 +2780,12 @@
       <c r="F96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -2414,8 +2804,12 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -2434,8 +2828,12 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -2454,8 +2852,12 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -2474,8 +2876,12 @@
       <c r="F100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -2494,8 +2900,12 @@
       <c r="F101" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -2514,8 +2924,12 @@
       <c r="F102" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2020</v>
       </c>
@@ -2534,8 +2948,12 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2020</v>
       </c>
@@ -2554,8 +2972,12 @@
       <c r="F104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2020</v>
       </c>
@@ -2574,8 +2996,12 @@
       <c r="F105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2020</v>
       </c>
@@ -2594,8 +3020,12 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2020</v>
       </c>
@@ -2614,8 +3044,12 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2020</v>
       </c>
@@ -2634,8 +3068,12 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2020</v>
       </c>
@@ -2654,8 +3092,12 @@
       <c r="F109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2020</v>
       </c>
@@ -2674,8 +3116,12 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -2694,8 +3140,12 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2020</v>
       </c>
@@ -2714,8 +3164,12 @@
       <c r="F112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2020</v>
       </c>
@@ -2734,8 +3188,12 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -2754,8 +3212,12 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" t="str">
+        <f t="shared" si="1"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -2774,8 +3236,12 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115" t="str">
+        <f t="shared" si="1"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2020</v>
       </c>
@@ -2794,8 +3260,12 @@
       <c r="F116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" t="str">
+        <f t="shared" si="1"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2020</v>
       </c>
@@ -2814,8 +3284,12 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G117" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -2834,8 +3308,12 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="str">
+        <f t="shared" si="1"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2020</v>
       </c>
@@ -2854,8 +3332,12 @@
       <c r="F119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2020</v>
       </c>
@@ -2874,8 +3356,12 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2020</v>
       </c>
@@ -2894,8 +3380,12 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="str">
+        <f t="shared" si="1"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2020</v>
       </c>
@@ -2914,8 +3404,12 @@
       <c r="F122" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" t="str">
+        <f t="shared" si="1"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2020</v>
       </c>
@@ -2934,8 +3428,12 @@
       <c r="F123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -2954,8 +3452,12 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G124" t="str">
+        <f t="shared" si="1"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -2974,8 +3476,12 @@
       <c r="F125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G125" t="str">
+        <f t="shared" si="1"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2020</v>
       </c>
@@ -2994,8 +3500,12 @@
       <c r="F126" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G126" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2020</v>
       </c>
@@ -3014,8 +3524,12 @@
       <c r="F127" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G127" t="str">
+        <f t="shared" si="1"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2020</v>
       </c>
@@ -3034,8 +3548,12 @@
       <c r="F128" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="str">
+        <f t="shared" si="1"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2020</v>
       </c>
@@ -3054,8 +3572,12 @@
       <c r="F129" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="str">
+        <f t="shared" si="1"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2020</v>
       </c>
@@ -3074,8 +3596,12 @@
       <c r="F130" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="str">
+        <f t="shared" si="1"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2020</v>
       </c>
@@ -3094,8 +3620,12 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="str">
+        <f t="shared" ref="G131:G162" si="2">IF(C131="Blue", IF(OR(D131=2,D131=3), "B2-3",IF(OR(D131=4,D131=5),"B4-5","B1")),IF(D131=3,"R3",IF(D131=4,"R4",IF(D131=5,"R5","R1-2"))))</f>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2020</v>
       </c>
@@ -3114,8 +3644,12 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="str">
+        <f t="shared" si="2"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2020</v>
       </c>
@@ -3134,8 +3668,12 @@
       <c r="F133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="str">
+        <f t="shared" si="2"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2020</v>
       </c>
@@ -3154,8 +3692,12 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="str">
+        <f t="shared" si="2"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2020</v>
       </c>
@@ -3174,8 +3716,12 @@
       <c r="F135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="str">
+        <f t="shared" si="2"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2020</v>
       </c>
@@ -3194,8 +3740,12 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="str">
+        <f t="shared" si="2"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2020</v>
       </c>
@@ -3214,8 +3764,12 @@
       <c r="F137" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="str">
+        <f t="shared" si="2"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2020</v>
       </c>
@@ -3234,8 +3788,12 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="str">
+        <f t="shared" si="2"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2020</v>
       </c>
@@ -3254,8 +3812,12 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="str">
+        <f t="shared" si="2"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2020</v>
       </c>
@@ -3274,8 +3836,12 @@
       <c r="F140" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="str">
+        <f t="shared" si="2"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2020</v>
       </c>
@@ -3294,8 +3860,12 @@
       <c r="F141" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="str">
+        <f t="shared" si="2"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2020</v>
       </c>
@@ -3314,8 +3884,12 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="str">
+        <f t="shared" si="2"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2020</v>
       </c>
@@ -3334,8 +3908,12 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="str">
+        <f t="shared" si="2"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -3354,8 +3932,12 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144" t="str">
+        <f t="shared" si="2"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2021</v>
       </c>
@@ -3374,8 +3956,12 @@
       <c r="F145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145" t="str">
+        <f t="shared" si="2"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2021</v>
       </c>
@@ -3394,8 +3980,12 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146" t="str">
+        <f t="shared" si="2"/>
+        <v>B2-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2021</v>
       </c>
@@ -3414,8 +4004,12 @@
       <c r="F147" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147" t="str">
+        <f t="shared" si="2"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2021</v>
       </c>
@@ -3434,8 +4028,12 @@
       <c r="F148" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148" t="str">
+        <f t="shared" si="2"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -3454,8 +4052,12 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149" t="str">
+        <f t="shared" si="2"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2021</v>
       </c>
@@ -3474,8 +4076,12 @@
       <c r="F150" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150" t="str">
+        <f t="shared" si="2"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -3494,8 +4100,12 @@
       <c r="F151" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151" t="str">
+        <f t="shared" si="2"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2021</v>
       </c>
@@ -3514,8 +4124,12 @@
       <c r="F152" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152" t="str">
+        <f t="shared" si="2"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -3534,8 +4148,12 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153" t="str">
+        <f t="shared" si="2"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -3554,8 +4172,12 @@
       <c r="F154" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154" t="str">
+        <f t="shared" si="2"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2021</v>
       </c>
@@ -3574,8 +4196,12 @@
       <c r="F155" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155" t="str">
+        <f t="shared" si="2"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2021</v>
       </c>
@@ -3594,8 +4220,12 @@
       <c r="F156" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156" t="str">
+        <f t="shared" si="2"/>
+        <v>B4-5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2021</v>
       </c>
@@ -3614,8 +4244,12 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" t="str">
+        <f t="shared" si="2"/>
+        <v>R5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -3634,8 +4268,12 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158" t="str">
+        <f t="shared" si="2"/>
+        <v>R4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2021</v>
       </c>
@@ -3654,8 +4292,12 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159" t="str">
+        <f t="shared" si="2"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -3674,8 +4316,12 @@
       <c r="F160" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G160" t="str">
+        <f t="shared" si="2"/>
+        <v>R1-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -3694,8 +4340,12 @@
       <c r="F161" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" t="str">
+        <f t="shared" si="2"/>
+        <v>R3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2021</v>
       </c>
@@ -3714,8 +4364,24 @@
       <c r="F162" t="s">
         <v>8</v>
       </c>
+      <c r="G162" t="str">
+        <f t="shared" si="2"/>
+        <v>R1-2</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G162">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Cho'gath"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="B4-5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>